--- a/importer/src/test/resources/taxonomy.xlsx
+++ b/importer/src/test/resources/taxonomy.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">serviceLevelDownType2</t>
   </si>
   <si>
-    <t xml:space="preserve">discountGroup</t>
+    <t xml:space="preserve">standardServiceTypeGroup</t>
   </si>
   <si>
     <t xml:space="preserve">AL1</t>
@@ -425,15 +425,15 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.84"/>
   </cols>

--- a/importer/src/test/resources/taxonomy.xlsx
+++ b/importer/src/test/resources/taxonomy.xlsx
@@ -425,10 +425,10 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.34"/>
